--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_0_bus_isolated.xlsx
@@ -716,49 +716,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.54545480308452</v>
+        <v>4.545454803106409</v>
       </c>
       <c r="D2">
-        <v>4.54545480308452</v>
+        <v>4.545454803106409</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509565138</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>288.6751509565138</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803683</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.693883187637584E-11</v>
+        <v>-8.693216820039525E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.9526279648965612</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>1.457510555730304E-10</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.9526279646404244</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.9526279649233328</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>1.564877650553718E-09</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -926,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.9526279649322567</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>2.0379085844192E-09</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9526279649322567</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>2.037913696276041E-09</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>
@@ -1083,55 +1083,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921382979</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921382979</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154132444</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154132444</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>1.020226441411962</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982762188</v>
+        <v>0.2400406982758469</v>
       </c>
       <c r="P2">
-        <v>0.8960735769109617</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884843866</v>
+        <v>5.766209884997127</v>
       </c>
       <c r="R2">
-        <v>-121.3466079985248</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>173.4315681773925</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0.240040698163018</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.8960735770061727</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>5.766209884977187</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079609365</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1234,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0.2400406981651682</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.8960735770323213</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>5.766209886018072</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-121.346607946951</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0.2400406981658847</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.8960735770410375</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>5.766209886365034</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.240040698165885</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8960735770410375</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>5.766209886365038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1450,55 +1450,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921382979</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921382979</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>237.1508154132444</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="G2">
-        <v>237.1508154132444</v>
+        <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>1.020226441411962</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982762188</v>
+        <v>0.2400406982758469</v>
       </c>
       <c r="P2">
-        <v>0.8960735769109617</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>5.766209884843866</v>
+        <v>5.766209884997127</v>
       </c>
       <c r="R2">
-        <v>-121.3466079985248</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>173.4315681773925</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0.240040698163018</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.8960735770061727</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>5.766209884977187</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079609365</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>173.4315681785684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0.2400406981651682</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.8960735770323213</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>5.766209886018072</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-121.346607946951</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0.2400406981658847</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.8960735770410375</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>5.766209886365034</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.240040698165885</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8960735770410375</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>5.766209886365038</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-121.3466079422891</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1817,40 +1817,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.63636376373438</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="D2">
-        <v>3.63636376373438</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.940115764979</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>230.940115764979</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845057</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720091434129778E-10</v>
+        <v>1.719987754007814E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.8660254036789672</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>4.106945179228056E-10</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.8660254036546297</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8660254039148649</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>3.135413710544507E-09</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.866025403646517</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8660254039229774</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>4.0436532313384E-09</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8660254036465169</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>4.043658949324683E-09</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2184,40 +2184,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.63636376373438</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="D2">
-        <v>3.63636376373438</v>
+        <v>3.636363763754282</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.940115764979</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>230.940115764979</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845057</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2226,13 +2226,13 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720091434129778E-10</v>
+        <v>1.719987754007814E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2276,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.8660254036789672</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>4.106945179228056E-10</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.8660254036546297</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8660254039148649</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>3.135413710544507E-09</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2394,22 +2394,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.866025403646517</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8660254039229774</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>4.0436532313384E-09</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.8660254036465169</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8660254039229772</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>4.043658949324683E-09</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2551,55 +2551,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.055365721225704</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="D2">
-        <v>3.055365721225704</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>194.0417843784657</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="G2">
-        <v>194.0417843784657</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944375794</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473245135</v>
+        <v>0.1964063473242867</v>
       </c>
       <c r="P2">
-        <v>0.8180121061777103</v>
+        <v>0.8180121061818273</v>
       </c>
       <c r="Q2">
-        <v>5.173976903950488</v>
+        <v>5.173976904115793</v>
       </c>
       <c r="R2">
-        <v>-122.1449202988061</v>
+        <v>-122.1449202961591</v>
       </c>
       <c r="S2">
-        <v>174.1659345854433</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9220324943451744</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1964063472166735</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8180121062689183</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202549968</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>174.1659345864975</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2702,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9220324943235477</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1964063472443392</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>5.173976906219938</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202329783</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9220324943163386</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.196406347253561</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>5.173976906921724</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202256388</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9220324943163385</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1964063472535611</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>5.173976906921723</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202256387</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -2918,55 +2918,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.055365721225704</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="D2">
-        <v>3.055365721225704</v>
+        <v>3.05536572122217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>194.0417843784657</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="G2">
-        <v>194.0417843784657</v>
+        <v>194.0417843782412</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944375794</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473245135</v>
+        <v>0.1964063473242867</v>
       </c>
       <c r="P2">
-        <v>0.8180121061777103</v>
+        <v>0.8180121061818273</v>
       </c>
       <c r="Q2">
-        <v>5.173976903950488</v>
+        <v>5.173976904115793</v>
       </c>
       <c r="R2">
-        <v>-122.1449202988061</v>
+        <v>-122.1449202961591</v>
       </c>
       <c r="S2">
-        <v>174.1659345854433</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9220324943451744</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1964063472166735</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8180121062689183</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202549968</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>174.1659345864975</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3069,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.9220324943235477</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1964063472443392</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8180121062966164</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>5.173976906219938</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202329783</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3128,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9220324943163386</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.196406347253561</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>5.173976906921724</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202256388</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9220324943163385</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1964063472535611</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.8180121063058492</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>5.173976906921723</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-122.1449202256387</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108456902</v>
+        <v>5.264364617711069</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522361469</v>
+        <v>334.332056206261</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3300,40 +3300,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394473472893</v>
+        <v>1.300764447633597</v>
       </c>
       <c r="I2">
-        <v>13.24394453576718</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.324394472531988</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>13.24394453576793</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394473472896</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
-        <v>13.24394453576718</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853099230456</v>
+        <v>0.6343001104121926</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6350853098972609</v>
+        <v>0.6339720469102065</v>
       </c>
       <c r="Q2">
-        <v>59.99999999884959</v>
+        <v>60.15738962477769</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>120.0000000024862</v>
+        <v>119.8596212761358</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3377,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6343001105284096</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6339720467990851</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>60.15738963030007</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>119.8596212824028</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3436,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6343001105688996</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.6339720467858126</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>60.1573896295516</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>119.8596212859401</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3495,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6343001105823962</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6339720467813883</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>60.15738962930213</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>119.8596212871192</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6343001105823962</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6339720467813885</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>60.15738962930212</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>119.8596212871192</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3649,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108456902</v>
+        <v>5.264364617711069</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3333522361469</v>
+        <v>334.332056206261</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3667,40 +3667,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394473472893</v>
+        <v>1.300764447633597</v>
       </c>
       <c r="I2">
-        <v>13.24394453576718</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.324394472531988</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>13.24394453576793</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394473472896</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
-        <v>13.24394453576718</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853099230456</v>
+        <v>0.6343001104121926</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884799</v>
       </c>
       <c r="P2">
-        <v>0.6350853098972609</v>
+        <v>0.6339720469102065</v>
       </c>
       <c r="Q2">
-        <v>59.99999999884959</v>
+        <v>60.15738962477769</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>120.0000000024862</v>
+        <v>119.8596212761358</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6343001105284096</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6339720467990851</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>60.15738963030007</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>119.8596212824028</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3803,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6343001105688996</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.6339720467858126</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>60.1573896295516</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>119.8596212859401</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3862,22 +3862,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6343001105823962</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6339720467813883</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>60.15738962930213</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>119.8596212871192</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6343001105823962</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023885133</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6339720467813885</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>60.15738962930212</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>119.8596212871192</v>
       </c>
     </row>
   </sheetData>
@@ -4016,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382517467</v>
+        <v>3.625393424248133</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>229.7713440840247</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4034,40 +4034,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394473472893</v>
+        <v>1.300764447633597</v>
       </c>
       <c r="I2">
-        <v>13.24394453576718</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.324394472531988</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>13.24394453576793</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394473472896</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
-        <v>13.24394453576718</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6918398877296293</v>
+        <v>0.6909829222610615</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874114</v>
       </c>
       <c r="P2">
-        <v>0.837842757876562</v>
+        <v>0.8375659730062431</v>
       </c>
       <c r="Q2">
-        <v>40.4095179577123</v>
+        <v>40.4343144813042</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9574716957084</v>
+        <v>128.8983448519719</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6909829223050229</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.8375659729263019</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>40.43431448785282</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>128.8983448548237</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6909829223314861</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.8375659729151191</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>40.43431448872158</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>128.8983448566141</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4229,22 +4229,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6909829223403073</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.8375659729113915</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>40.43431448901118</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>128.898344857211</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6909829223403073</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8375659729113917</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>40.43431448901117</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>128.898344857211</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382517467</v>
+        <v>3.625393424248133</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>229.7713440840247</v>
+        <v>230.2434056348754</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4552,40 +4552,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394473472893</v>
+        <v>1.300764447633597</v>
       </c>
       <c r="I2">
-        <v>13.24394453576718</v>
+        <v>13.12643350248103</v>
       </c>
       <c r="J2">
-        <v>1.324394472531988</v>
+        <v>1.324394473164017</v>
       </c>
       <c r="K2">
-        <v>13.24394453576793</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394473472896</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
-        <v>13.24394453576718</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6918398877296293</v>
+        <v>0.6909829222610615</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874114</v>
       </c>
       <c r="P2">
-        <v>0.837842757876562</v>
+        <v>0.8375659730062431</v>
       </c>
       <c r="Q2">
-        <v>40.4095179577123</v>
+        <v>40.4343144813042</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.9574716957084</v>
+        <v>128.8983448519719</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4629,22 +4629,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6909829223050229</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.8375659729263019</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>40.43431448785282</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>128.8983448548237</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6909829223314861</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.8375659729151191</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>40.43431448872158</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>128.8983448566141</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4747,22 +4747,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6909829223403073</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.8375659729113915</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>40.43431448901118</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>128.898344857211</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6909829223403073</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>1.100000023874346</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.8375659729113917</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>40.43431448901117</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>128.898344857211</v>
       </c>
     </row>
   </sheetData>
@@ -4901,7 +4901,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195729429</v>
+        <v>4.213192401619783</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760073492</v>
+        <v>267.5736543945155</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4919,40 +4919,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993719880022</v>
+        <v>1.474542044182669</v>
       </c>
       <c r="I2">
-        <v>15.04993697245777</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.504993721833392</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697245861</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993719880027</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697245777</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5773502691662145</v>
+        <v>0.5765401439822568</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P2">
-        <v>0.5773502692090567</v>
+        <v>0.576201795229378</v>
       </c>
       <c r="Q2">
-        <v>59.99999999874468</v>
+        <v>60.17868937655201</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999987934</v>
+        <v>119.8405974276079</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4996,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.576540144090433</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.576201795125422</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>60.17868938223109</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>119.8405974340222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.5765401441386172</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5762017951247248</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>60.17868937950893</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>119.8405974395331</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5765401441546787</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5762017951244922</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>60.17868937860157</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>119.8405974413701</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5765401441546787</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5762017951244923</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>60.17868937860155</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>119.8405974413701</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195729429</v>
+        <v>4.213192401619783</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760073492</v>
+        <v>267.5736543945155</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5286,40 +5286,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993719880022</v>
+        <v>1.474542044182669</v>
       </c>
       <c r="I2">
-        <v>15.04993697245777</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.504993721833392</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697245861</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993719880027</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697245777</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5773502691662145</v>
+        <v>0.5765401439822568</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962974</v>
       </c>
       <c r="P2">
-        <v>0.5773502692090567</v>
+        <v>0.576201795229378</v>
       </c>
       <c r="Q2">
-        <v>59.99999999874468</v>
+        <v>60.17868937655201</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999987934</v>
+        <v>119.8405974276079</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5363,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.576540144090433</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.576201795125422</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>60.17868938223109</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>119.8405974340222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5422,22 +5422,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.5765401441386172</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5762017951247248</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>60.17868937950893</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>119.8405974395331</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5481,22 +5481,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5765401441546787</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5762017951244922</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>60.17868937860157</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>119.8405974413701</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5765401441546787</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9999999999962972</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5762017951244923</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>60.17868937860155</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>119.8405974413701</v>
       </c>
     </row>
   </sheetData>
@@ -5635,7 +5635,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138794057</v>
+        <v>3.020245844266743</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.345683290048</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5653,40 +5653,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993719880022</v>
+        <v>1.474542044182669</v>
       </c>
       <c r="I2">
-        <v>15.04993697245777</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.504993721833392</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697245861</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993719880027</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697245777</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6184267549991423</v>
+        <v>0.6174917383880854</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908644</v>
+        <v>0.9999999999908339</v>
       </c>
       <c r="P2">
-        <v>0.7472997527121603</v>
+        <v>0.7469662906422754</v>
       </c>
       <c r="Q2">
-        <v>41.77463363330364</v>
+        <v>41.81125415021728</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.1091583199064</v>
+        <v>128.0356398711231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5730,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.6174917384338743</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7469662905646186</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>41.81125415715732</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>128.0356398742512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5789,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.6174917384735997</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7469662905612762</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>41.81125415722487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>128.035639877288</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5848,22 +5848,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.6174917384868416</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>128.0356398783003</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.6174917384868418</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>128.0356398783003</v>
       </c>
     </row>
   </sheetData>
@@ -6002,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138794057</v>
+        <v>3.020245844266743</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>191.345683290048</v>
+        <v>191.8113726326878</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6020,40 +6020,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993719880022</v>
+        <v>1.474542044182669</v>
       </c>
       <c r="I2">
-        <v>15.04993697245777</v>
+        <v>14.89840753975064</v>
       </c>
       <c r="J2">
-        <v>1.504993721833392</v>
+        <v>1.504993722648776</v>
       </c>
       <c r="K2">
-        <v>15.04993697245861</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993719880027</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697245777</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6184267549991423</v>
+        <v>0.6174917383880854</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908644</v>
+        <v>0.9999999999908339</v>
       </c>
       <c r="P2">
-        <v>0.7472997527121603</v>
+        <v>0.7469662906422754</v>
       </c>
       <c r="Q2">
-        <v>41.77463363330364</v>
+        <v>41.81125415021728</v>
       </c>
       <c r="R2">
         <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>128.1091583199064</v>
+        <v>128.0356398711231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6097,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.6174917384338743</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7469662905646186</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>41.81125415715732</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>128.0356398742512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6156,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.6174917384735997</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7469662905612762</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>41.81125415722487</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>128.035639877288</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6215,22 +6215,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.6174917384868416</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9999999999908167</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>128.0356398783003</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.6174917384868418</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9999999999908168</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.7469662905601621</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>41.8112541572474</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>128.0356398783003</v>
       </c>
     </row>
   </sheetData>
@@ -6372,55 +6372,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.248639108306365</v>
+        <v>5.255183237588032</v>
       </c>
       <c r="D2">
-        <v>5.24863910830651</v>
+        <v>5.257902653512833</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522265865</v>
+        <v>333.7489602548485</v>
       </c>
       <c r="G2">
-        <v>333.3333522265958</v>
+        <v>333.921666361633</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098400608</v>
+        <v>0.6331769188571921</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098560606</v>
+        <v>0.6331769188732894</v>
       </c>
       <c r="Q2">
-        <v>-4.857026428804568E-11</v>
+        <v>0.01721676024909132</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999991136</v>
+        <v>-179.9827832388245</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6331769187460407</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6331769189884716</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>0.01721676653584104</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>-179.9827832332137</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6523,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6331769187329946</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.6331769190289545</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>0.01721677007760511</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>-179.9827832339435</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6582,22 +6582,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6331769187286458</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6331769190424485</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>0.01721677125819649</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>-179.9827832341868</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6331769187286458</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6331769190424487</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>0.01721677125819743</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>-179.9827832341868</v>
       </c>
     </row>
   </sheetData>
@@ -6739,55 +6739,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.248639108306365</v>
+        <v>5.255183237588032</v>
       </c>
       <c r="D2">
-        <v>5.24863910830651</v>
+        <v>5.257902653512833</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522265865</v>
+        <v>333.7489602548485</v>
       </c>
       <c r="G2">
-        <v>333.3333522265958</v>
+        <v>333.921666361633</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098400608</v>
+        <v>0.6331769188571921</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098560606</v>
+        <v>0.6331769188732894</v>
       </c>
       <c r="Q2">
-        <v>-4.857026428804568E-11</v>
+        <v>0.01721676024909132</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999991136</v>
+        <v>-179.9827832388245</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6831,22 +6831,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.6331769187460407</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6331769189884716</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>0.01721676653584104</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>-179.9827832332137</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6890,22 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.6331769187329946</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.6331769190289545</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>0.01721677007760511</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>-179.9827832339435</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6949,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.6331769187286458</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6331769190424485</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>0.01721677125819649</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>-179.9827832341868</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.6331769187286458</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6331769190424487</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>0.01721677125819743</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>-179.9827832341868</v>
       </c>
     </row>
   </sheetData>
@@ -7106,55 +7106,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.617960382442754</v>
+        <v>3.622570642599639</v>
       </c>
       <c r="D2">
-        <v>3.617960382442808</v>
+        <v>3.620809597792313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>229.7713440792798</v>
+        <v>230.0641349229671</v>
       </c>
       <c r="G2">
-        <v>229.7713440792833</v>
+        <v>229.952293556675</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8378427578245271</v>
+        <v>0.8369538581404179</v>
       </c>
       <c r="O2">
-        <v>0.4028253111916907</v>
+        <v>0.4028253111899595</v>
       </c>
       <c r="P2">
-        <v>0.6918398876778908</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>8.957471694767792</v>
+        <v>8.94427839573042</v>
       </c>
       <c r="R2">
-        <v>-115.8807585983535</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.4095179582256</v>
+        <v>160.3602675324944</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.8369538580602207</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0.4028253110950818</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6911513995130508</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>8.94427839858615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585788096</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>160.3602675390512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7257,22 +7257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.8369538580491177</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0.4028253110968861</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.69115139953945</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>8.944278400378577</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585718168</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>160.360267539925</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7316,22 +7316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.8369538580454167</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0.4028253110974873</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6911513995482498</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>8.944278400976053</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>160.3602675402163</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8369538580454168</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.4028253110974874</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>8.944278400976051</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>160.3602675402163</v>
       </c>
     </row>
   </sheetData>
@@ -7473,55 +7473,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.617960382442754</v>
+        <v>3.622570642599639</v>
       </c>
       <c r="D2">
-        <v>3.617960382442808</v>
+        <v>3.620809597792313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>229.7713440792798</v>
+        <v>230.0641349229671</v>
       </c>
       <c r="G2">
-        <v>229.7713440792833</v>
+        <v>229.952293556675</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.8378427578245271</v>
+        <v>0.8369538581404179</v>
       </c>
       <c r="O2">
-        <v>0.4028253111916907</v>
+        <v>0.4028253111899595</v>
       </c>
       <c r="P2">
-        <v>0.6918398876778908</v>
+        <v>0.6911513994698277</v>
       </c>
       <c r="Q2">
-        <v>8.957471694767792</v>
+        <v>8.94427839573042</v>
       </c>
       <c r="R2">
-        <v>-115.8807585983535</v>
+        <v>-115.8807585964503</v>
       </c>
       <c r="S2">
-        <v>160.4095179582256</v>
+        <v>160.3602675324944</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7565,22 +7565,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.8369538580602207</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0.4028253110950818</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.6911513995130508</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>8.94427839858615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585788096</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>160.3602675390512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.8369538580491177</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0.4028253110968861</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.69115139953945</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>8.944278400378577</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585718168</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>160.360267539925</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7683,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.8369538580454167</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0.4028253110974873</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.6911513995482498</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>8.944278400976053</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>160.3602675402163</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.8369538580454168</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0.4028253110974874</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.6911513995482499</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>8.944278400976051</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-115.8807585694859</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>160.3602675402163</v>
       </c>
     </row>
   </sheetData>
@@ -7840,55 +7840,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911195717868</v>
+        <v>4.204859615112913</v>
       </c>
       <c r="D2">
-        <v>4.198911195717984</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760066149</v>
+        <v>267.044451375903</v>
       </c>
       <c r="G2">
-        <v>266.6666760066223</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502692007634</v>
+        <v>0.5753800350087245</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691799056</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>-3.255080704450846E-10</v>
+        <v>0.01955211452980261</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999991205</v>
+        <v>-179.980447886011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7932,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.5753800349053516</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.575380035095409</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>0.01955212100223937</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>-179.9804478802643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.5753800349049824</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5753800351436866</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>0.01955212651045778</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>-179.9804478829599</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8050,22 +8050,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5753800349048592</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>0.01955212834653186</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>-179.9804478838584</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5753800349048592</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>0.01955212834651717</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>-179.9804478838584</v>
       </c>
     </row>
   </sheetData>
@@ -8358,55 +8358,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911195717868</v>
+        <v>4.204859615112913</v>
       </c>
       <c r="D2">
-        <v>4.198911195717984</v>
+        <v>4.207328731315589</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760066149</v>
+        <v>267.044451375903</v>
       </c>
       <c r="G2">
-        <v>266.6666760066223</v>
+        <v>267.2012613153732</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502692007634</v>
+        <v>0.5753800350087245</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691799056</v>
+        <v>0.5753800349877173</v>
       </c>
       <c r="Q2">
-        <v>-3.255080704450846E-10</v>
+        <v>0.01955211452980261</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999991205</v>
+        <v>-179.980447886011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.5753800349053516</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.575380035095409</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>0.01955212100223937</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>-179.9804478802643</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8509,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.5753800349049824</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.5753800351436866</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>0.01955212651045778</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>-179.9804478829599</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8568,22 +8568,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.5753800349048592</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>0.01955212834653186</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>-179.9804478838584</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.5753800349048592</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5753800351597791</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>0.01955212834651717</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>-179.9804478838584</v>
       </c>
     </row>
   </sheetData>
@@ -8725,55 +8725,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.012913138798344</v>
+        <v>3.017335629541762</v>
       </c>
       <c r="D2">
-        <v>3.012913138798392</v>
+        <v>3.01585437295513</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.3456832903202</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>191.3456832903233</v>
+        <v>191.532476746859</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7472997527179239</v>
+        <v>0.7463003082195627</v>
       </c>
       <c r="O2">
-        <v>0.3354590831704711</v>
+        <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6184267550144409</v>
+        <v>0.61761589533227</v>
       </c>
       <c r="Q2">
-        <v>8.10915832045764</v>
+        <v>8.094520904119621</v>
       </c>
       <c r="R2">
-        <v>-117.0248837790425</v>
+        <v>-117.0248837768026</v>
       </c>
       <c r="S2">
-        <v>161.7746336336087</v>
+        <v>161.7176503553877</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.7463003081421457</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.335459083077099</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6176158953777589</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>8.09452090726835</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>161.7176503623313</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8876,22 +8876,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7463003081389359</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3354590831007253</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6176158954174238</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>8.09452091030581</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837452119</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>161.7176503624121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.746300308137866</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3354590831086006</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6176158954306453</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>8.094520911318298</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837415421</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>161.717650362439</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.746300308137866</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6176158954306454</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>8.094520911318298</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837415421</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.717650362439</v>
       </c>
     </row>
   </sheetData>
@@ -9092,55 +9092,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.012913138798344</v>
+        <v>3.017335629541762</v>
       </c>
       <c r="D2">
-        <v>3.012913138798392</v>
+        <v>3.01585437295513</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>191.3456832903202</v>
+        <v>191.6265491746524</v>
       </c>
       <c r="G2">
-        <v>191.3456832903233</v>
+        <v>191.532476746859</v>
       </c>
       <c r="H2">
-        <v>1.504993719879962</v>
+        <v>1.474542044182608</v>
       </c>
       <c r="I2">
-        <v>15.04993697245902</v>
+        <v>14.89840753975189</v>
       </c>
       <c r="J2">
-        <v>1.504993720430847</v>
+        <v>1.504993721246254</v>
       </c>
       <c r="K2">
-        <v>15.04993697341311</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993719879901</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697245807</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7472997527179239</v>
+        <v>0.7463003082195627</v>
       </c>
       <c r="O2">
-        <v>0.3354590831704711</v>
+        <v>0.3354590831689818</v>
       </c>
       <c r="P2">
-        <v>0.6184267550144409</v>
+        <v>0.61761589533227</v>
       </c>
       <c r="Q2">
-        <v>8.10915832045764</v>
+        <v>8.094520904119621</v>
       </c>
       <c r="R2">
-        <v>-117.0248837790425</v>
+        <v>-117.0248837768026</v>
       </c>
       <c r="S2">
-        <v>161.7746336336087</v>
+        <v>161.7176503553877</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9184,22 +9184,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.7463003081421457</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.335459083077099</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6176158953777589</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999878</v>
+        <v>8.09452090726835</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837562212</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>161.7176503623313</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7463003081389359</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3354590831007253</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6176158954174238</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999878</v>
+        <v>8.09452091030581</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837452119</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>161.7176503624121</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9302,22 +9302,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.746300308137866</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3354590831086006</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6176158954306453</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999878</v>
+        <v>8.094520911318298</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837415421</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>161.717650362439</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.746300308137866</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3354590831086007</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6176158954306454</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999878</v>
+        <v>8.094520911318298</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-117.0248837415421</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>161.717650362439</v>
       </c>
     </row>
   </sheetData>
@@ -10214,49 +10214,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.54545480308452</v>
+        <v>4.545454803106409</v>
       </c>
       <c r="D2">
-        <v>4.54545480308452</v>
+        <v>4.545454803106409</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509565138</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>288.6751509565138</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394473472839</v>
+        <v>1.300764447633541</v>
       </c>
       <c r="I2">
-        <v>13.24394453576828</v>
+        <v>13.12643350248213</v>
       </c>
       <c r="J2">
-        <v>1.324394473554608</v>
+        <v>1.324394474185764</v>
       </c>
       <c r="K2">
-        <v>13.24394453590985</v>
+        <v>13.24394453578178</v>
       </c>
       <c r="L2">
-        <v>1.324394473472784</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453576745</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803683</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.693883187637584E-11</v>
+        <v>-8.693216820039525E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10306,22 +10306,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.100000023841858</v>
+        <v>0.9526279646671957</v>
       </c>
       <c r="O3">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100000023841858</v>
+        <v>0.9526279648965612</v>
       </c>
       <c r="Q3">
-        <v>29.99999999999879</v>
+        <v>1.457510555730304E-10</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>149.9999999999939</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10365,22 +10365,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100000023841858</v>
+        <v>0.9526279646404244</v>
       </c>
       <c r="O4">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.100000023841858</v>
+        <v>0.9526279649233328</v>
       </c>
       <c r="Q4">
-        <v>29.99999999999879</v>
+        <v>1.564877650553718E-09</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>149.9999999999939</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023841858</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O5">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023841858</v>
+        <v>0.9526279649322567</v>
       </c>
       <c r="Q5">
-        <v>29.99999999999879</v>
+        <v>2.0379085844192E-09</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999999939</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023841858</v>
+        <v>0.9526279646315003</v>
       </c>
       <c r="O6">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023841858</v>
+        <v>0.9526279649322567</v>
       </c>
       <c r="Q6">
-        <v>29.99999999999879</v>
+        <v>2.037913696276041E-09</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999999939</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
   </sheetData>
